--- a/public/documents/floors.xlsx
+++ b/public/documents/floors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andymswick/Documents/SGD Institute/2020/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andymswick/Development/sgdinstitute/enterprise/public/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{711E15DF-3449-654E-910E-063A4F83F239}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21ADB384-BAD5-704F-9A5F-91E38043CC8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10760" yWindow="2260" windowWidth="27640" windowHeight="16940" xr2:uid="{5476EF22-58D2-7F43-9BD5-B3E08F0C23B2}"/>
+    <workbookView xWindow="5960" yWindow="2260" windowWidth="27640" windowHeight="16940" xr2:uid="{5476EF22-58D2-7F43-9BD5-B3E08F0C23B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -62,9 +62,6 @@
     <t>2710:2720:2730:2110:2120:2130</t>
   </si>
   <si>
-    <t>1910:1920:1710:1930:1940:1750:1320:1440,Lobby</t>
-  </si>
-  <si>
     <t>3310:3110:3130:3140:3510</t>
   </si>
   <si>
@@ -74,7 +71,10 @@
     <t>105:106:107:157:158:159</t>
   </si>
   <si>
-    <t>204,Martin Luther King Room:205,International Room:208,West Suite:211:212:213:227,East Ballroom:244,Faculty Lounge:245,Brown and Gold Room</t>
+    <t>1910:1920:1710:1930:1940:1750:1320:1440,Lobby,1710:1730:1740</t>
+  </si>
+  <si>
+    <t>204,Martin Luther King Room:205,International Room:208,West Suite:211:212:213:227,Ballroom:244,Faculty Lounge:245,Brown and Gold Room</t>
   </si>
 </sst>
 </file>
@@ -461,7 +461,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -483,7 +483,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -494,7 +494,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -516,7 +516,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
